--- a/P4S_Icfes/input/PBTS_InternationalParameters.xlsx
+++ b/P4S_Icfes/input/PBTS_InternationalParameters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jflorez\JAFG\2017\10.Octubre\1.PISA\1.INTERNACIONALES_github\P4S_Icfes\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JEISON\P4S\INDICES\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="WLE" sheetId="7" r:id="rId6"/>
     <sheet name="PARED" sheetId="8" r:id="rId7"/>
     <sheet name="dif_HOMEPOS" sheetId="9" r:id="rId8"/>
-    <sheet name="discirm_HOMEPOS" sheetId="10" r:id="rId9"/>
+    <sheet name="discrim_HOMEPOS" sheetId="10" r:id="rId9"/>
     <sheet name="discrim_DISCLICI" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ALL!$A$1:$C$154</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">discirm_HOMEPOS!$A$1:$D$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Indices!$A$1:$D$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">discrim_HOMEPOS!$A$1:$D$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Indices!$A$1:$D$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">WLE!$A$1:$D$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="343">
   <si>
     <t>item</t>
   </si>
@@ -604,6 +605,9 @@
     <t>DISCLIM</t>
   </si>
   <si>
+    <t>DISCLISCI</t>
+  </si>
+  <si>
     <t>HOMEPOS</t>
   </si>
   <si>
@@ -832,6 +836,30 @@
     <t>X15.ST129.H_Cat3</t>
   </si>
   <si>
+    <t>X15.ST129.A_Cat4</t>
+  </si>
+  <si>
+    <t>X15.ST129.B_Cat4</t>
+  </si>
+  <si>
+    <t>X15.ST129.C_Cat4</t>
+  </si>
+  <si>
+    <t>X15.ST129.D_Cat4</t>
+  </si>
+  <si>
+    <t>X15.ST129.E_Cat4</t>
+  </si>
+  <si>
+    <t>X15.ST129.F_Cat4</t>
+  </si>
+  <si>
+    <t>X15.ST129.G_Cat4</t>
+  </si>
+  <si>
+    <t>X15.ST129.H_Cat4</t>
+  </si>
+  <si>
     <t>X15.ST113.A_Cat1</t>
   </si>
   <si>
@@ -866,6 +894,18 @@
   </si>
   <si>
     <t>X15.ST113.D_Cat3</t>
+  </si>
+  <si>
+    <t>X15.ST113.A_Cat4</t>
+  </si>
+  <si>
+    <t>X15.ST113.B_Cat4</t>
+  </si>
+  <si>
+    <t>X15.ST113.C_Cat4</t>
+  </si>
+  <si>
+    <t>X15.ST113.D_Cat4</t>
   </si>
   <si>
     <t>Madre</t>
@@ -1040,7 +1080,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1088,27 +1128,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1123,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1177,9 +1203,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1460,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,7 +1851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>0.3</v>
       </c>
@@ -1837,7 +1862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>0.77700000000000002</v>
       </c>
@@ -1848,7 +1873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1.1519999999999999</v>
       </c>
@@ -1859,7 +1884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1.0249999999999999</v>
       </c>
@@ -1869,9 +1894,8 @@
       <c r="C36" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="27"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>0.56699999999999995</v>
       </c>
@@ -1882,7 +1906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1.601</v>
       </c>
@@ -1893,7 +1917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1.6319999999999999</v>
       </c>
@@ -1904,7 +1928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2.5430000000000001</v>
       </c>
@@ -1915,7 +1939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>1.7256175</v>
       </c>
@@ -1926,7 +1950,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>-1.83751</v>
       </c>
@@ -1937,7 +1961,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>0.57162999999999997</v>
       </c>
@@ -1948,7 +1972,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>0.51288999999999996</v>
       </c>
@@ -1959,7 +1983,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2.02921</v>
       </c>
@@ -1970,7 +1994,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>0.31480000000000002</v>
       </c>
@@ -1981,7 +2005,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>0.67239000000000004</v>
       </c>
@@ -2000,15 +2024,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2021,8 +2048,13 @@
       <c r="D1" s="16">
         <v>0.94803000000000004</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H1" s="13"/>
+      <c r="J1" t="str">
+        <f t="shared" ref="J1:J14" si="0">MID(H1, 5,5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2035,8 +2067,13 @@
       <c r="D2" s="16">
         <v>0.94803000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H2" s="13"/>
+      <c r="J2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2049,8 +2086,13 @@
       <c r="D3" s="16">
         <v>0.94803000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H3" s="13"/>
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2063,8 +2105,13 @@
       <c r="D4" s="16">
         <v>0.94803000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H4" s="13"/>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2077,8 +2124,13 @@
       <c r="D5" s="16">
         <v>0.94803000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H5" s="13"/>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2092,8 +2144,13 @@
         <f>D1*2</f>
         <v>1.8960600000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H6" s="13"/>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2107,8 +2164,13 @@
         <f>D2*2</f>
         <v>1.8960600000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H7" s="13"/>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2122,8 +2184,13 @@
         <f>D3*2</f>
         <v>1.8960600000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H8" s="13"/>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2137,8 +2204,13 @@
         <f>D4*2</f>
         <v>1.8960600000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H9" s="13"/>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2152,8 +2224,13 @@
         <f>D5*2</f>
         <v>1.8960600000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H10" s="13"/>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2167,8 +2244,13 @@
         <f>D1*3</f>
         <v>2.84409</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H11" s="13"/>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2182,8 +2264,13 @@
         <f>D2*3</f>
         <v>2.84409</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H12" s="13"/>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -2197,8 +2284,13 @@
         <f>D3*3</f>
         <v>2.84409</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H13" s="13"/>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2212,8 +2304,13 @@
         <f>D4*3</f>
         <v>2.84409</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H14" s="13"/>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2226,6 +2323,11 @@
       <c r="D15" s="16">
         <f>D5*3</f>
         <v>2.84409</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="J15" t="str">
+        <f>MID(H15, 5,5)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -3474,9 +3576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5190,10 +5290,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5214,7 +5314,7 @@
         <v>124</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5555,10 +5655,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C26" s="9">
         <v>-3.1397499999999998</v>
@@ -5569,10 +5669,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C27" s="9">
         <v>-3.06792</v>
@@ -5583,10 +5683,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C28" s="9">
         <v>-2.4638999999999998</v>
@@ -5597,10 +5697,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C29" s="9">
         <v>-2.77467</v>
@@ -5611,10 +5711,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C30" s="9">
         <v>-0.76144999999999996</v>
@@ -5625,10 +5725,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C31" s="9">
         <v>-0.92310999999999988</v>
@@ -5639,10 +5739,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C32" s="9">
         <v>-4.3219999999999981E-2</v>
@@ -5653,10 +5753,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C33" s="9">
         <v>-0.33914</v>
@@ -5667,10 +5767,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C34" s="9">
         <v>3.2594400000000001</v>
@@ -5681,10 +5781,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C35" s="9">
         <v>3.2016100000000001</v>
@@ -5695,10 +5795,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C36" s="9">
         <v>3.4022300000000003</v>
@@ -5709,10 +5809,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C37" s="9">
         <v>3.64988</v>
@@ -5723,10 +5823,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C38" s="9">
         <v>-2.21</v>
@@ -5737,10 +5837,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C39" s="9">
         <v>-2.12</v>
@@ -5751,10 +5851,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C40" s="9">
         <v>-1.3800000000000001</v>
@@ -5765,10 +5865,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C41" s="9">
         <v>-1.71</v>
@@ -5779,10 +5879,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C42" s="9">
         <v>-1.53</v>
@@ -5793,10 +5893,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C43" s="9">
         <v>-1.6600000000000001</v>
@@ -5807,10 +5907,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C44" s="9">
         <v>-0.94</v>
@@ -5821,10 +5921,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C45" s="9">
         <v>-1.21</v>
@@ -5835,10 +5935,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C46" s="9">
         <v>-0.77</v>
@@ -5849,10 +5949,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C47" s="9">
         <v>-0.78</v>
@@ -5863,10 +5963,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C48" s="9">
         <v>5.0000000000000017E-2</v>
@@ -5877,10 +5977,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C49" s="9">
         <v>-0.12</v>
@@ -5891,10 +5991,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C50" s="9">
         <v>-0.24</v>
@@ -5905,10 +6005,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C51" s="9">
         <v>-0.22000000000000003</v>
@@ -5919,10 +6019,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C52" s="9">
         <v>0.35</v>
@@ -5933,10 +6033,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C53" s="9">
         <v>0.09</v>
@@ -5947,10 +6047,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C54" s="9">
         <v>2.13</v>
@@ -5961,10 +6061,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C55" s="9">
         <v>1.0099999999999998</v>
@@ -5975,10 +6075,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C56" s="9">
         <v>1.8499999999999999</v>
@@ -5989,10 +6089,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C57" s="9">
         <v>2.11</v>
@@ -6003,10 +6103,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C58" s="9">
         <v>1.6199999999999999</v>
@@ -6017,10 +6117,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C59" s="9">
         <v>1.73</v>
@@ -6031,10 +6131,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C60" s="9">
         <v>2.06</v>
@@ -6045,10 +6145,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C61" s="9">
         <v>1.87</v>
@@ -6058,112 +6158,112 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="14" t="s">
         <v>194</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C62" s="9">
-        <v>-3.67</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="14" t="s">
         <v>194</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C63" s="9">
-        <v>-3.38</v>
+        <v>-2.12</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="14" t="s">
         <v>194</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C64" s="9">
-        <v>-3.66</v>
+        <v>-1.3900000000000001</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="14" t="s">
         <v>194</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C65" s="9">
-        <v>-3.42</v>
+        <v>-1.72</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="14" t="s">
         <v>194</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C66" s="9">
-        <v>-0.6</v>
+        <v>-1.53</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="14" t="s">
         <v>194</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C67" s="9">
-        <v>6.9999999999999979E-2</v>
+        <v>-1.6600000000000001</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="14" t="s">
         <v>194</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C68" s="9">
-        <v>-0.45</v>
+        <v>-0.94000000000000017</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="14" t="s">
         <v>194</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C69" s="9">
-        <v>5.0000000000000044E-2</v>
+        <v>-1.2100000000000002</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>182</v>
@@ -6171,13 +6271,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C70" s="9">
-        <v>3.64</v>
+        <v>-3.67</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>182</v>
@@ -6185,13 +6285,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C71" s="9">
-        <v>4.03</v>
+        <v>-3.38</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>182</v>
@@ -6199,13 +6299,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C72" s="9">
-        <v>4.1100000000000003</v>
+        <v>-3.66</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>182</v>
@@ -6213,13 +6313,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C73" s="9">
-        <v>4.3899999999999997</v>
+        <v>-3.42</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>182</v>
@@ -6227,170 +6327,170 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>224</v>
+        <v>195</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="C74" s="9">
-        <v>-1.7043000000000001</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>207</v>
+        <v>-0.6</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>225</v>
+        <v>195</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="C75" s="9">
-        <v>-1.5404499999999999</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>207</v>
+        <v>6.9999999999999979E-2</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>226</v>
+        <v>195</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="C76" s="9">
-        <v>-1.6417999999999999</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>207</v>
+        <v>-0.45</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>227</v>
+        <v>195</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="C77" s="9">
-        <v>-2.0239600000000002</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>207</v>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>228</v>
+        <v>195</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="C78" s="9">
-        <v>-1.59642</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>207</v>
+        <v>3.64</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>229</v>
+        <v>195</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="C79" s="9">
-        <v>-0.25481999999999999</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>207</v>
+        <v>4.03</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>230</v>
+        <v>195</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="C80" s="9">
-        <v>-0.30920999999999998</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>207</v>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>231</v>
+        <v>195</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>284</v>
       </c>
       <c r="C81" s="9">
-        <v>-0.51800999999999997</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>207</v>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>232</v>
+      <c r="A82" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="C82" s="9">
-        <v>-0.86309000000000002</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>207</v>
+        <v>-3.67</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>233</v>
+      <c r="A83" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>286</v>
       </c>
       <c r="C83" s="9">
-        <v>-0.55406999999999995</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>207</v>
+        <v>-3.38</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>234</v>
+      <c r="A84" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>287</v>
       </c>
       <c r="C84" s="9">
-        <v>3.0366</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>207</v>
+        <v>-3.66</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>235</v>
+      <c r="A85" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="C85" s="9">
-        <v>2.4416799999999999</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>207</v>
+        <v>-3.42</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -6398,13 +6498,13 @@
         <v>187</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C86" s="9">
-        <v>1.86161</v>
+        <v>-1.7043000000000001</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -6412,13 +6512,13 @@
         <v>187</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C87" s="9">
-        <v>1.95987</v>
+        <v>-1.5404499999999999</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -6426,181 +6526,181 @@
         <v>187</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C88" s="9">
-        <v>1.7064600000000001</v>
+        <v>-1.6417999999999999</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>300</v>
+        <v>187</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="C89" s="9">
-        <v>-4.7</v>
+        <v>-2.0239600000000002</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>301</v>
+        <v>187</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="C90" s="9">
-        <v>-4.4189999999999996</v>
+        <v>-1.59642</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
-        <v>186</v>
+      <c r="A91" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="C91" s="9">
-        <v>-4.4950000000000001</v>
+        <v>-0.25481999999999999</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>303</v>
+        <v>187</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="C92" s="9">
-        <v>-5.3710000000000004</v>
+        <v>-0.30920999999999998</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>304</v>
+        <v>187</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="C93" s="9">
-        <v>-4.7110000000000003</v>
+        <v>-0.51800999999999997</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>305</v>
+        <v>187</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="C94" s="9">
-        <v>-2.4849999999999999</v>
+        <v>-0.86309000000000002</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>306</v>
+        <v>187</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="C95" s="9">
-        <v>-2.1240000000000001</v>
+        <v>-0.55406999999999995</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>307</v>
+        <v>187</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>235</v>
       </c>
       <c r="C96" s="9">
-        <v>-2.4939999999999998</v>
+        <v>3.0366</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>308</v>
+        <v>187</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="C97" s="9">
-        <v>-2.52</v>
+        <v>2.4416799999999999</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>309</v>
+        <v>187</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="C98" s="9">
-        <v>-2.2919999999999998</v>
+        <v>1.86161</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>310</v>
+        <v>187</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="C99" s="9">
-        <v>1.4511000000000001</v>
+        <v>1.95987</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>311</v>
+        <v>187</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>239</v>
       </c>
       <c r="C100" s="9">
-        <v>1.1399999999999999</v>
+        <v>1.7064600000000001</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -6608,13 +6708,13 @@
         <v>186</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C101" s="9">
-        <v>0.70310000000000006</v>
+        <v>-4.7</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -6622,416 +6722,416 @@
         <v>186</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C102" s="9">
+        <v>-4.4189999999999996</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C103" s="9">
+        <v>-4.4950000000000001</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C104" s="9">
+        <v>-5.3710000000000004</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C105" s="9">
+        <v>-4.7110000000000003</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C106" s="9">
+        <v>-2.4849999999999999</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C107" s="9">
+        <v>-2.1240000000000001</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" s="9">
+        <v>-2.4939999999999998</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="9">
+        <v>-2.52</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C110" s="9">
+        <v>-2.2919999999999998</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C111" s="9">
+        <v>1.4511000000000001</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C112" s="9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C113" s="9">
+        <v>0.70310000000000006</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C114" s="9">
         <v>0.79989999999999961</v>
       </c>
-      <c r="D102" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+      <c r="D114" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C103" s="9">
+      <c r="B115" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C115" s="9">
         <v>0.66610000000000014</v>
       </c>
-      <c r="D103" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
+      <c r="D115" s="9" t="s">
         <v>208</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="C104" s="12">
-        <v>1.4433800000000001</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="C105" s="12">
-        <v>1.4208699999999999</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="C106" s="12">
-        <v>1.0620499999999999</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="C107" s="12">
-        <v>0.74394999999999989</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="C108" s="12">
-        <v>0.80720999999999998</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C109" s="12">
-        <v>0.70765999999999996</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="C110" s="12">
-        <v>0.54393000000000002</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="C111" s="12">
-        <v>0.30774000000000001</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="C112" s="12">
-        <v>0.14679999999999999</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="C113" s="12">
-        <v>0.19014000000000003</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="C114" s="12">
-        <v>-1.5801699999999999</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="C115" s="12">
-        <v>-1.38259</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C116" s="12">
+        <v>1.4433800000000001</v>
+      </c>
+      <c r="D116" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="C116" s="12">
-        <v>-1.3964300000000001</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C117" s="12">
+        <v>1.4208699999999999</v>
+      </c>
+      <c r="D117" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C117" s="12">
-        <v>-1.90506</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C118" s="12">
+        <v>1.0620499999999999</v>
+      </c>
+      <c r="D118" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B118" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="C118" s="12">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C119" s="12">
+        <v>0.74394999999999989</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C120" s="12">
+        <v>0.80720999999999998</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C121" s="12">
+        <v>0.70765999999999996</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C122" s="12">
+        <v>0.54393000000000002</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C123" s="12">
+        <v>0.30774000000000001</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C124" s="12">
+        <v>0.14679999999999999</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C125" s="12">
+        <v>0.19014000000000003</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C126" s="12">
+        <v>-1.5801699999999999</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C127" s="12">
+        <v>-1.38259</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C128" s="12">
+        <v>-1.3964300000000001</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C129" s="12">
+        <v>-1.90506</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C130" s="12">
         <v>-1.56334</v>
       </c>
-      <c r="D118" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C119" s="9">
+      <c r="D130" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C131" s="9">
         <v>-2.8723299999999998</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C120" s="9">
-        <v>-2.5546499999999996</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C121" s="9">
-        <v>-2.3723000000000001</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C122" s="9">
-        <v>-2.34931</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C123" s="9">
-        <v>-1.9478899999999999</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C124" s="9">
-        <v>-0.92535000000000012</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C125" s="9">
-        <v>-0.55852000000000002</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C126" s="9">
-        <v>-0.20532</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C127" s="9">
-        <v>-0.88572000000000006</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C128" s="9">
-        <v>-0.84394000000000002</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C129" s="9">
-        <v>3.0344799999999998</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C130" s="9">
-        <v>3.1941999999999999</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C131" s="9">
-        <v>3.3774500000000001</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>182</v>
@@ -7039,13 +7139,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C132" s="9">
-        <v>2.8959699999999997</v>
+        <v>-2.5546499999999996</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>182</v>
@@ -7053,19 +7153,188 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B133" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C133" s="9">
+        <v>-2.3723000000000001</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C134" s="9">
+        <v>-2.34931</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C135" s="9">
+        <v>-1.9478899999999999</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C136" s="9">
+        <v>-0.92535000000000012</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C137" s="9">
+        <v>-0.55852000000000002</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C138" s="9">
+        <v>-0.20532</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C139" s="9">
+        <v>-0.88572000000000006</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C140" s="9">
+        <v>-0.84394000000000002</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C141" s="9">
+        <v>3.0344799999999998</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C142" s="9">
+        <v>3.1941999999999999</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C143" s="9">
+        <v>3.3774500000000001</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B144" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C133" s="9">
+      <c r="C144" s="9">
+        <v>2.8959699999999997</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C145" s="9">
         <v>3.0132299999999996</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D145" s="10" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D145"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7073,18 +7342,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>156</v>
       </c>
@@ -7098,7 +7365,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>186</v>
       </c>
@@ -7112,7 +7379,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>187</v>
       </c>
@@ -7126,9 +7393,9 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B4" s="8">
         <v>2015</v>
@@ -7140,9 +7407,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B5" s="8">
         <v>2015</v>
@@ -7154,9 +7421,9 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B6" s="8">
         <v>2012</v>
@@ -7168,9 +7435,9 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B7" s="8">
         <v>2012</v>
@@ -7182,7 +7449,7 @@
         <v>93.93</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>157</v>
       </c>
@@ -7196,9 +7463,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B9" s="8">
         <v>2012</v>
@@ -7210,9 +7477,9 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B10" s="8">
         <v>2012</v>
@@ -7224,9 +7491,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B11" s="8">
         <v>2006</v>
@@ -7238,9 +7505,9 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B12" s="8">
         <v>2006</v>
@@ -7251,9 +7518,6 @@
       <c r="D12" s="8">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7281,36 +7545,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="D2" s="19">
         <v>4</v>
@@ -7327,13 +7591,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D3" s="19">
         <v>3</v>
@@ -7350,13 +7614,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="D4" s="19">
         <v>2</v>
@@ -7373,19 +7637,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D5" s="19">
         <v>1</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="F5" s="20">
         <v>4</v>
@@ -7396,19 +7660,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F6" s="20">
         <v>6</v>
@@ -7419,19 +7683,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="F7" s="20">
         <v>5</v>
@@ -7447,20 +7711,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A46" sqref="A27:A46"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7468,7 +7730,7 @@
         <v>-0.996</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7476,7 +7738,7 @@
         <v>-0.81499999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7484,7 +7746,7 @@
         <v>-1.137</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7492,7 +7754,7 @@
         <v>-0.34499999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7500,7 +7762,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7508,7 +7770,7 @@
         <v>-0.41699999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7516,7 +7778,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7524,7 +7786,7 @@
         <v>-1.387</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7532,7 +7794,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7540,7 +7802,7 @@
         <v>-1.226</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7548,7 +7810,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7556,7 +7818,7 @@
         <v>-1.746</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7564,7 +7826,7 @@
         <v>-1.0269999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7572,13 +7834,14 @@
         <v>-0.129</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>-0.72299999999999998</v>
       </c>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -7827,15 +8090,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7849,7 +8110,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7863,7 +8124,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7877,7 +8138,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7891,7 +8152,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7905,7 +8166,7 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7919,7 +8180,7 @@
         <v>2.448</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -7933,7 +8194,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -7947,7 +8208,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -7961,7 +8222,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -7971,11 +8232,12 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="24">
         <v>0.59299999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -7985,11 +8247,12 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="24">
         <v>0.88600000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -7999,12 +8262,12 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="24">
         <v>0.70099999999999996</v>
       </c>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>13</v>
       </c>
@@ -8017,8 +8280,9 @@
       <c r="D13" s="24">
         <v>1.256</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -8031,8 +8295,9 @@
       <c r="D14" s="25">
         <v>1.7210000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -8043,10 +8308,11 @@
         <v>1</v>
       </c>
       <c r="D15" s="25">
-        <v>1.3620000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -8059,8 +8325,9 @@
       <c r="D16" s="26">
         <v>0.91500000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>17</v>
       </c>
@@ -8073,8 +8340,9 @@
       <c r="D17" s="24">
         <v>0.623</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>17</v>
       </c>
@@ -8088,7 +8356,7 @@
         <v>1.246</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>17</v>
       </c>
@@ -8102,7 +8370,7 @@
         <v>1.869</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8116,7 +8384,7 @@
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -8130,7 +8398,7 @@
         <v>1.958</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -8144,7 +8412,7 @@
         <v>2.9369999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -8158,7 +8426,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -8172,7 +8440,7 @@
         <v>1.964</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -8186,7 +8454,7 @@
         <v>2.9460000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -8200,7 +8468,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
@@ -8214,7 +8482,7 @@
         <v>1.6759999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
@@ -8228,7 +8496,7 @@
         <v>2.5139999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
@@ -8242,7 +8510,7 @@
         <v>1.6910000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>21</v>
       </c>
@@ -8256,7 +8524,7 @@
         <v>3.3820000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>21</v>
       </c>
@@ -8270,7 +8538,7 @@
         <v>5.0730000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>22</v>
       </c>
